--- a/6sem/ТАУ/Laba_1/Laba_1.xlsx
+++ b/6sem/ТАУ/Laba_1/Laba_1.xlsx
@@ -5670,7 +5670,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U26" sqref="U26"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5546875" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
